--- a/data/statistic_project_data.xlsx
+++ b/data/statistic_project_data.xlsx
@@ -1,24 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20352"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerome\Desktop\2019_Fall\Statistics\期末Project\Statistics-Project\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B24FD9-A97B-443E-931E-41D455D3B218}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8210" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="CPI" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="income" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="truck" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="bike" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="car" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="MRT" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="Ubike" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="欄位說明" sheetId="8" r:id="rId11"/>
+    <sheet name="CPI" sheetId="1" r:id="rId1"/>
+    <sheet name="income" sheetId="2" r:id="rId2"/>
+    <sheet name="truck" sheetId="3" r:id="rId3"/>
+    <sheet name="bike" sheetId="4" r:id="rId4"/>
+    <sheet name="car" sheetId="5" r:id="rId5"/>
+    <sheet name="MRT" sheetId="6" r:id="rId6"/>
+    <sheet name="Ubike" sheetId="7" r:id="rId7"/>
+    <sheet name="欄位說明" sheetId="8" r:id="rId8"/>
+    <sheet name="Delated Income" sheetId="9" r:id="rId9"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
   <si>
     <t>Year</t>
   </si>
@@ -93,36 +103,51 @@
   </si>
   <si>
     <t>98年:3~12月</t>
+  </si>
+  <si>
+    <t>Deflated.Income</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="3">
@@ -130,7 +155,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -140,74 +165,47 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -397,20 +395,23 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -418,198 +419,198 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="B2" s="2">
         <v>82.87</v>
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2">
         <v>84.26</v>
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="B4" s="2">
         <v>84.41</v>
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="B5" s="2">
         <v>85.47</v>
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="B6" s="2">
         <v>85.46</v>
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
-        <v>91.0</v>
+        <v>91</v>
       </c>
       <c r="B7" s="2">
         <v>85.29</v>
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="B8" s="2">
         <v>85.05</v>
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="B9" s="2">
         <v>86.42</v>
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="B10" s="2">
         <v>88.42</v>
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="B11" s="2">
         <v>88.95</v>
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
-        <v>96.0</v>
+        <v>96</v>
       </c>
       <c r="B12" s="2">
         <v>90.55</v>
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
-        <v>97.0</v>
+        <v>97</v>
       </c>
       <c r="B13" s="2">
         <v>93.74</v>
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="B14" s="2">
         <v>92.92</v>
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="B15" s="2">
         <v>93.82</v>
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="B16" s="2">
         <v>95.15</v>
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="B17" s="2">
         <v>96.99</v>
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
-        <v>102.0</v>
+        <v>102</v>
       </c>
       <c r="B18" s="2">
         <v>97.76</v>
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
-        <v>103.0</v>
+        <v>103</v>
       </c>
       <c r="B19" s="2">
         <v>98.93</v>
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
-        <v>104.0</v>
+        <v>104</v>
       </c>
       <c r="B20" s="2">
         <v>98.63</v>
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="B21" s="2">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
-        <v>106.0</v>
+        <v>106</v>
       </c>
       <c r="B22" s="2">
         <v>100.62</v>
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
-        <v>107.0</v>
+        <v>107</v>
       </c>
       <c r="B23" s="2">
         <v>101.98</v>
@@ -617,21 +618,23 @@
       <c r="F23" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -639,198 +642,200 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="B2" s="2">
-        <v>364972.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>364972</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2">
-        <v>383537.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>383537</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="B4" s="2">
-        <v>397319.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>397319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="B5" s="2">
-        <v>416031.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>416031</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="B6" s="2">
-        <v>401946.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>401946</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
-        <v>91.0</v>
+        <v>91</v>
       </c>
       <c r="B7" s="2">
-        <v>420616.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>420616</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="B8" s="2">
-        <v>435810.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>435810</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="B9" s="2">
-        <v>459084.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>459084</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="B10" s="2">
-        <v>468828.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>468828</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="B11" s="2">
-        <v>483897.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>483897</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
-        <v>96.0</v>
+        <v>96</v>
       </c>
       <c r="B12" s="2">
-        <v>503548.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>503548</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
-        <v>97.0</v>
+        <v>97</v>
       </c>
       <c r="B13" s="2">
-        <v>482543.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>482543</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="B14" s="2">
-        <v>473259.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>473259</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="B15" s="2">
-        <v>524234.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>524234</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="B16" s="2">
-        <v>527186.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>527186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="B17" s="2">
-        <v>537021.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>537021</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
-        <v>102.0</v>
+        <v>102</v>
       </c>
       <c r="B18" s="2">
-        <v>565198.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>565198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
-        <v>103.0</v>
+        <v>103</v>
       </c>
       <c r="B19" s="2">
-        <v>607264.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>607264</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
-        <v>104.0</v>
+        <v>104</v>
       </c>
       <c r="B20" s="2">
-        <v>633367.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>633367</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="B21" s="2">
-        <v>650854.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>650854</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
-        <v>106.0</v>
+        <v>106</v>
       </c>
       <c r="B22" s="2">
-        <v>667945.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>667945</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
-        <v>107.0</v>
+        <v>107</v>
       </c>
       <c r="B23" s="2">
-        <v>678233.0</v>
+        <v>678233</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -838,198 +843,200 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="B2" s="2">
-        <v>5038306.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>5038306</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2">
-        <v>5168828.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>5168828</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="B4" s="2">
-        <v>5102985.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>5102985</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="B5" s="2">
-        <v>5336507.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>5336507</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="B6" s="2">
-        <v>5470752.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>5470752</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
-        <v>91.0</v>
+        <v>91</v>
       </c>
       <c r="B7" s="2">
-        <v>5663775.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>5663775</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="B8" s="2">
-        <v>5876004.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>5876004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="B9" s="2">
-        <v>6094336.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>6094336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="B10" s="2">
-        <v>6356284.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>6356284</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="B11" s="2">
-        <v>6431440.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>6431440</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
-        <v>96.0</v>
+        <v>96</v>
       </c>
       <c r="B12" s="2">
-        <v>6447891.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>6447891</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
-        <v>97.0</v>
+        <v>97</v>
       </c>
       <c r="B13" s="2">
-        <v>6410034.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>6410034</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="B14" s="2">
-        <v>6444987.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>6444987</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="B15" s="2">
-        <v>6541622.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>6541622</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="B16" s="2">
-        <v>6701419.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>6701419</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="B17" s="2">
-        <v>6831267.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>6831267</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
-        <v>102.0</v>
+        <v>102</v>
       </c>
       <c r="B18" s="2">
-        <v>6982214.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>6982214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
-        <v>103.0</v>
+        <v>103</v>
       </c>
       <c r="B19" s="2">
-        <v>7155661.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>7155661</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
-        <v>104.0</v>
+        <v>104</v>
       </c>
       <c r="B20" s="2">
-        <v>7328319.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>7328319</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="B21" s="2">
-        <v>7423215.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>7423215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
-        <v>106.0</v>
+        <v>106</v>
       </c>
       <c r="B22" s="2">
-        <v>7520054.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>7520054</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
-        <v>107.0</v>
+        <v>107</v>
       </c>
       <c r="B23" s="2">
-        <v>7599882.0</v>
+        <v>7599882</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1037,198 +1044,200 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="B2" s="2">
-        <v>1.0051613E7</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>10051613</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2">
-        <v>1.052904E7</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>10529040</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="B4" s="2">
-        <v>1.0958469E7</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>10958469</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="B5" s="2">
-        <v>1.1423172E7</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>11423172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="B6" s="2">
-        <v>1.1733202E7</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>11733202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
-        <v>91.0</v>
+        <v>91</v>
       </c>
       <c r="B7" s="2">
-        <v>1.1983757E7</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>11983757</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="B8" s="2">
-        <v>1.2366864E7</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>12366864</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="B9" s="2">
-        <v>1.279395E7</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>12793950</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="B10" s="2">
-        <v>1.3195265E7</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>13195265</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="B11" s="2">
-        <v>1.3557028E7</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>13557028</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
-        <v>96.0</v>
+        <v>96</v>
       </c>
       <c r="B12" s="2">
-        <v>1.3943473E7</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>13943473</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
-        <v>97.0</v>
+        <v>97</v>
       </c>
       <c r="B13" s="2">
-        <v>1.4365442E7</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>14365442</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="B14" s="2">
-        <v>1.460433E7</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>14604330</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="B15" s="2">
-        <v>1.4844932E7</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>14844932</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="B16" s="2">
-        <v>1.5173602E7</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>15173602</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="B17" s="2">
-        <v>1.5139628E7</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>15139628</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
-        <v>102.0</v>
+        <v>102</v>
       </c>
       <c r="B18" s="2">
-        <v>1.4195123E7</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>14195123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
-        <v>103.0</v>
+        <v>103</v>
       </c>
       <c r="B19" s="2">
-        <v>1.373596E7</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>13735960</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
-        <v>104.0</v>
+        <v>104</v>
       </c>
       <c r="B20" s="2">
-        <v>1.3661719E7</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>13661719</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="B21" s="2">
-        <v>1.3668227E7</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>13668227</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
-        <v>106.0</v>
+        <v>106</v>
       </c>
       <c r="B22" s="2">
-        <v>1.3755582E7</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>13755582</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
-        <v>107.0</v>
+        <v>107</v>
       </c>
       <c r="B23" s="2">
-        <v>1.383552E7</v>
+        <v>13835520</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1236,201 +1245,203 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="B2" s="2">
-        <v>109289.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>109289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2">
-        <v>112293.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>112293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="B4" s="2">
-        <v>107700.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>107700</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="B5" s="2">
-        <v>107257.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>107257</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="B6" s="2">
-        <v>104940.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>104940</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
-        <v>91.0</v>
+        <v>91</v>
       </c>
       <c r="B7" s="2">
-        <v>101286.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>101286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="B8" s="2">
-        <v>97752.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>97752</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="B9" s="2">
-        <v>95665.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>95665</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="B10" s="2">
-        <v>94278.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>94278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="B11" s="2">
-        <v>92418.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>92418</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
-        <v>96.0</v>
+        <v>96</v>
       </c>
       <c r="B12" s="2">
-        <v>89738.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>89738</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
-        <v>97.0</v>
+        <v>97</v>
       </c>
       <c r="B13" s="2">
-        <v>88779.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>88779</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="B14" s="2">
-        <v>88589.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>88589</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="B15" s="2">
-        <v>87449.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>87449</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="B16" s="2">
-        <v>87012.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>87012</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="B17" s="2">
-        <v>86654.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>86654</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
-        <v>102.0</v>
+        <v>102</v>
       </c>
       <c r="B18" s="2">
-        <v>87256.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>87256</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
-        <v>103.0</v>
+        <v>103</v>
       </c>
       <c r="B19" s="2">
-        <v>87643.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>87643</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
-        <v>104.0</v>
+        <v>104</v>
       </c>
       <c r="B20" s="2">
-        <v>86979.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>86979</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="B21" s="2">
-        <v>86969.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>86969</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
-        <v>106.0</v>
+        <v>106</v>
       </c>
       <c r="B22" s="2">
-        <v>87604.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>87604</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
-        <v>107.0</v>
+        <v>107</v>
       </c>
       <c r="B23" s="2">
-        <v>87685.0</v>
+        <v>87685</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="17.0"/>
+    <col min="2" max="2" width="17" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1447,396 +1458,398 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="B2" s="1">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1">
-        <v>207209.0</v>
+        <v>207209</v>
       </c>
       <c r="D2" s="1">
-        <v>3.1079749E7</v>
+        <v>31079749</v>
       </c>
       <c r="E2" s="1">
-        <v>3282.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>3282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="B3" s="1">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1">
-        <v>236159.0</v>
+        <v>236159</v>
       </c>
       <c r="D3" s="1">
-        <v>6.0781145E7</v>
+        <v>60781145</v>
       </c>
       <c r="E3" s="1">
-        <v>12229.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>12229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="B4" s="1">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="C4" s="1">
-        <v>263044.0</v>
+        <v>263044</v>
       </c>
       <c r="D4" s="1">
-        <v>1.26952122E8</v>
+        <v>126952122</v>
       </c>
       <c r="E4" s="1">
-        <v>21203.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>21203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="B5" s="1">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="C5" s="1">
-        <v>468756.0</v>
+        <v>468756</v>
       </c>
       <c r="D5" s="1">
-        <v>2.68588061E8</v>
+        <v>268588061</v>
       </c>
       <c r="E5" s="1">
-        <v>38138.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>38138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="B6" s="1">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="C6" s="1">
-        <v>441751.0</v>
+        <v>441751</v>
       </c>
       <c r="D6" s="1">
-        <v>2.89642714E8</v>
+        <v>289642714</v>
       </c>
       <c r="E6" s="1">
-        <v>44368.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>44368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>91.0</v>
+        <v>91</v>
       </c>
       <c r="B7" s="1">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="C7" s="1">
-        <v>498322.0</v>
+        <v>498322</v>
       </c>
       <c r="D7" s="1">
-        <v>3.24433557E8</v>
+        <v>324433557</v>
       </c>
       <c r="E7" s="1">
-        <v>53093.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>53093</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="B8" s="1">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="C8" s="1">
-        <v>505468.0</v>
+        <v>505468</v>
       </c>
       <c r="D8" s="1">
-        <v>3.16189128E8</v>
+        <v>316189128</v>
       </c>
       <c r="E8" s="1">
-        <v>72399.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>72399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="B9" s="1">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="C9" s="1">
-        <v>509843.0</v>
+        <v>509843</v>
       </c>
       <c r="D9" s="1">
-        <v>3.50141956E8</v>
+        <v>350141956</v>
       </c>
       <c r="E9" s="1">
-        <v>125343.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>125343</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="B10" s="1">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="C10" s="1">
-        <v>518554.0</v>
+        <v>518554</v>
       </c>
       <c r="D10" s="1">
-        <v>3.60729803E8</v>
+        <v>360729803</v>
       </c>
       <c r="E10" s="1">
-        <v>127424.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>127424</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="B11" s="1">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="C11" s="1">
-        <v>552538.0</v>
+        <v>552538</v>
       </c>
       <c r="D11" s="1">
-        <v>3.8394756E8</v>
+        <v>383947560</v>
       </c>
       <c r="E11" s="1">
-        <v>130916.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>130916</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>96.0</v>
+        <v>96</v>
       </c>
       <c r="B12" s="1">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="C12" s="1">
-        <v>792513.0</v>
+        <v>792513</v>
       </c>
       <c r="D12" s="1">
-        <v>4.16229685E8</v>
+        <v>416229685</v>
       </c>
       <c r="E12" s="1">
-        <v>140044.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>140044</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>97.0</v>
+        <v>97</v>
       </c>
       <c r="B13" s="1">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="C13" s="1">
-        <v>832907.0</v>
+        <v>832907</v>
       </c>
       <c r="D13" s="1">
-        <v>4.50024415E8</v>
+        <v>450024415</v>
       </c>
       <c r="E13" s="1">
-        <v>152643.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>152643</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="B14" s="1">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="C14" s="1">
-        <v>833332.0</v>
+        <v>833332</v>
       </c>
       <c r="D14" s="1">
-        <v>4.62472351E8</v>
+        <v>462472351</v>
       </c>
       <c r="E14" s="1">
-        <v>153679.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>153679</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="B15" s="1">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="C15" s="1">
-        <v>874980.0</v>
+        <v>874980</v>
       </c>
       <c r="D15" s="1">
-        <v>5.0546645E8</v>
+        <v>505466450</v>
       </c>
       <c r="E15" s="1">
-        <v>162098.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>162098</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="B16" s="1">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="C16" s="1">
-        <v>1000441.0</v>
+        <v>1000441</v>
       </c>
       <c r="D16" s="1">
-        <v>5.66404486E8</v>
+        <v>566404486</v>
       </c>
       <c r="E16" s="1">
-        <v>170963.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>170963</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="B17" s="1">
-        <v>102.0</v>
+        <v>102</v>
       </c>
       <c r="C17" s="1">
-        <v>1104588.0</v>
+        <v>1104588</v>
       </c>
       <c r="D17" s="1">
-        <v>6.02199342E8</v>
+        <v>602199342</v>
       </c>
       <c r="E17" s="1">
-        <v>177917.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>177917</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>102.0</v>
+        <v>102</v>
       </c>
       <c r="B18" s="1">
-        <v>109.0</v>
+        <v>109</v>
       </c>
       <c r="C18" s="1">
-        <v>1099972.0</v>
+        <v>1099972</v>
       </c>
       <c r="D18" s="1">
-        <v>6.34961083E8</v>
+        <v>634961083</v>
       </c>
       <c r="E18" s="1">
-        <v>182193.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>182193</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>103.0</v>
+        <v>103</v>
       </c>
       <c r="B19" s="1">
-        <v>116.0</v>
+        <v>116</v>
       </c>
       <c r="C19" s="1">
-        <v>1139985.0</v>
+        <v>1139985</v>
       </c>
       <c r="D19" s="1">
-        <v>6.79506401E8</v>
+        <v>679506401</v>
       </c>
       <c r="E19" s="1">
-        <v>180133.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>180133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>104.0</v>
+        <v>104</v>
       </c>
       <c r="B20" s="1">
-        <v>117.0</v>
+        <v>117</v>
       </c>
       <c r="C20" s="1">
-        <v>1204770.0</v>
+        <v>1204770</v>
       </c>
       <c r="D20" s="1">
-        <v>7.17511809E8</v>
+        <v>717511809</v>
       </c>
       <c r="E20" s="1">
-        <v>173877.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>173877</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="B21" s="1">
-        <v>117.0</v>
+        <v>117</v>
       </c>
       <c r="C21" s="1">
-        <v>1185681.0</v>
+        <v>1185681</v>
       </c>
       <c r="D21" s="1">
-        <v>7.39990166E8</v>
+        <v>739990166</v>
       </c>
       <c r="E21" s="1">
-        <v>173770.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>173770</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>106.0</v>
+        <v>106</v>
       </c>
       <c r="B22" s="1">
-        <v>117.0</v>
+        <v>117</v>
       </c>
       <c r="C22" s="1">
-        <v>1171196.0</v>
+        <v>1171196</v>
       </c>
       <c r="D22" s="1">
-        <v>7.46066556E8</v>
+        <v>746066556</v>
       </c>
       <c r="E22" s="1">
-        <v>173730.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>173730</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>107.0</v>
+        <v>107</v>
       </c>
       <c r="B23" s="1">
-        <v>117.0</v>
+        <v>117</v>
       </c>
       <c r="C23" s="1">
-        <v>1170205.0</v>
+        <v>1170205</v>
       </c>
       <c r="D23" s="1">
-        <v>7.65470127E8</v>
+        <v>765470127</v>
       </c>
       <c r="E23" s="1">
-        <v>184103.0</v>
+        <v>184103</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1844,120 +1857,122 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="B2" s="1">
-        <v>134116.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>134116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <f t="shared" ref="A3:A11" si="1">A2+1</f>
+        <f t="shared" ref="A3:A11" si="0">A2+1</f>
         <v>99</v>
       </c>
       <c r="B3" s="1">
-        <v>91802.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>91802</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="B4" s="1">
-        <v>61924.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>61924</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>101</v>
       </c>
       <c r="B5" s="1">
-        <v>998515.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>998515</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>102</v>
       </c>
       <c r="B6" s="1">
-        <v>1.0984563E7</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>10984563</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>103</v>
       </c>
       <c r="B7" s="1">
-        <v>2.2579964E7</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>22579964</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>104</v>
       </c>
       <c r="B8" s="1">
-        <v>2.0082738E7</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>20082738</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>105</v>
       </c>
       <c r="B9" s="1">
-        <v>1.8431346E7</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>18431346</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>106</v>
       </c>
       <c r="B10" s="1">
-        <v>2.1953673E7</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>21953673</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>107</v>
       </c>
       <c r="B11" s="1">
-        <v>2.6252736E7</v>
+        <v>26252736</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="42.57"/>
+    <col min="2" max="2" width="42.54296875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1965,7 +1980,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1973,7 +1988,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1981,7 +1996,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -1989,7 +2004,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -1997,13 +2012,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="6"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -2011,7 +2026,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -2019,7 +2034,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -2027,7 +2042,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -2035,7 +2050,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -2043,7 +2058,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
@@ -2051,7 +2066,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -2059,7 +2074,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -2071,6 +2086,207 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>86</v>
+      </c>
+      <c r="B2">
+        <v>395119.62758471363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>87</v>
+      </c>
+      <c r="B3">
+        <v>407714.46794939943</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>88</v>
+      </c>
+      <c r="B4">
+        <v>423626.18616057147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>89</v>
+      </c>
+      <c r="B5">
+        <v>444857.78443113773</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>90</v>
+      </c>
+      <c r="B6">
+        <v>427193.11297693697</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>91</v>
+      </c>
+      <c r="B7">
+        <v>446656.04757353722</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>92</v>
+      </c>
+      <c r="B8">
+        <v>463184.18535444787</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>93</v>
+      </c>
+      <c r="B9">
+        <v>481977.95275590551</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>94</v>
+      </c>
+      <c r="B10">
+        <v>490149.50339780445</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>95</v>
+      </c>
+      <c r="B11">
+        <v>500048.56877131347</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>96</v>
+      </c>
+      <c r="B12">
+        <v>512778.00407331972</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>97</v>
+      </c>
+      <c r="B13">
+        <v>482109.10180837242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>98</v>
+      </c>
+      <c r="B14">
+        <v>481982.89031469601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>99</v>
+      </c>
+      <c r="B15">
+        <v>528195.46599496226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>100</v>
+      </c>
+      <c r="B16">
+        <v>528984.54746136873</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>101</v>
+      </c>
+      <c r="B17">
+        <v>534988.04542737594</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>102</v>
+      </c>
+      <c r="B18">
+        <v>563957.29395330278</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>103</v>
+      </c>
+      <c r="B19">
+        <v>602444.4444444445</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>104</v>
+      </c>
+      <c r="B20">
+        <v>635272.81845536607</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>105</v>
+      </c>
+      <c r="B21">
+        <v>650854</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>106</v>
+      </c>
+      <c r="B22">
+        <v>669686.18407860445</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>107</v>
+      </c>
+      <c r="B23">
+        <v>673117.30845573638</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/statistic_project_data.xlsx
+++ b/data/statistic_project_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20352"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20353"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerome\Desktop\2019_Fall\Statistics\期末Project\Statistics-Project\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerome\Desktop\2019_Fall\Statistics\Project\Statistic-Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B24FD9-A97B-443E-931E-41D455D3B218}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EF50D2-9BE0-4514-9BE1-2D9DAE1F13D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8210" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CPI" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="MRT" sheetId="6" r:id="rId6"/>
     <sheet name="Ubike" sheetId="7" r:id="rId7"/>
     <sheet name="欄位說明" sheetId="8" r:id="rId8"/>
-    <sheet name="Delated Income" sheetId="9" r:id="rId9"/>
+    <sheet name="Deflated Income" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
@@ -407,7 +407,9 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2095,7 +2097,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>

--- a/data/statistic_project_data.xlsx
+++ b/data/statistic_project_data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20353"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerome\Desktop\2019_Fall\Statistics\Project\Statistic-Project\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Melody\hw\Rhw\project_try\Statistics-Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EF50D2-9BE0-4514-9BE1-2D9DAE1F13D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8208" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="CPI" sheetId="1" r:id="rId1"/>
@@ -22,13 +21,14 @@
     <sheet name="Ubike" sheetId="7" r:id="rId7"/>
     <sheet name="欄位說明" sheetId="8" r:id="rId8"/>
     <sheet name="Deflated Income" sheetId="9" r:id="rId9"/>
+    <sheet name="motor vehicle(Taipei)" sheetId="11" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
   <si>
     <t>Year</t>
   </si>
@@ -106,13 +106,58 @@
   </si>
   <si>
     <t>Deflated.Income</t>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>axi</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>otorcycle</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>rivate vehicle</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -149,6 +194,12 @@
       <family val="3"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -176,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -187,6 +238,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -401,17 +453,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -421,7 +473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>86</v>
       </c>
@@ -430,7 +482,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>87</v>
       </c>
@@ -439,7 +491,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>88</v>
       </c>
@@ -448,7 +500,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>89</v>
       </c>
@@ -457,7 +509,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>90</v>
       </c>
@@ -466,7 +518,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>91</v>
       </c>
@@ -475,7 +527,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>92</v>
       </c>
@@ -484,7 +536,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>93</v>
       </c>
@@ -493,7 +545,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>94</v>
       </c>
@@ -502,7 +554,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>95</v>
       </c>
@@ -511,7 +563,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>96</v>
       </c>
@@ -520,7 +572,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>97</v>
       </c>
@@ -529,7 +581,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>98</v>
       </c>
@@ -538,7 +590,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>99</v>
       </c>
@@ -547,7 +599,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>100</v>
       </c>
@@ -556,7 +608,7 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>101</v>
       </c>
@@ -565,7 +617,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>102</v>
       </c>
@@ -574,7 +626,7 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>103</v>
       </c>
@@ -583,7 +635,7 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>104</v>
       </c>
@@ -592,7 +644,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>105</v>
       </c>
@@ -601,7 +653,7 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>106</v>
       </c>
@@ -610,7 +662,7 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>107</v>
       </c>
@@ -618,6 +670,365 @@
         <v>101.98</v>
       </c>
       <c r="F23" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>86</v>
+      </c>
+      <c r="B2">
+        <v>38941</v>
+      </c>
+      <c r="C2">
+        <v>871537</v>
+      </c>
+      <c r="D2">
+        <v>604119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>87</v>
+      </c>
+      <c r="B3">
+        <v>38544</v>
+      </c>
+      <c r="C3">
+        <v>904232</v>
+      </c>
+      <c r="D3">
+        <v>624626</v>
+      </c>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>88</v>
+      </c>
+      <c r="B4">
+        <v>36585</v>
+      </c>
+      <c r="C4">
+        <v>931399</v>
+      </c>
+      <c r="D4">
+        <v>596634</v>
+      </c>
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>89</v>
+      </c>
+      <c r="B5">
+        <v>36686</v>
+      </c>
+      <c r="C5">
+        <v>959013</v>
+      </c>
+      <c r="D5">
+        <v>611149</v>
+      </c>
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>90</v>
+      </c>
+      <c r="B6">
+        <v>36393</v>
+      </c>
+      <c r="C6">
+        <v>970169</v>
+      </c>
+      <c r="D6">
+        <v>611624</v>
+      </c>
+      <c r="N6" s="5"/>
+    </row>
+    <row r="7" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>91</v>
+      </c>
+      <c r="B7">
+        <v>35445</v>
+      </c>
+      <c r="C7">
+        <v>971568</v>
+      </c>
+      <c r="D7">
+        <v>623516</v>
+      </c>
+      <c r="N7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>92</v>
+      </c>
+      <c r="B8">
+        <v>34237</v>
+      </c>
+      <c r="C8">
+        <v>994336</v>
+      </c>
+      <c r="D8">
+        <v>641517</v>
+      </c>
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>93</v>
+      </c>
+      <c r="B9">
+        <v>33602</v>
+      </c>
+      <c r="C9">
+        <v>1018384</v>
+      </c>
+      <c r="D9">
+        <v>628895</v>
+      </c>
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>94</v>
+      </c>
+      <c r="B10">
+        <v>33274</v>
+      </c>
+      <c r="C10">
+        <v>1030972</v>
+      </c>
+      <c r="D10">
+        <v>634563</v>
+      </c>
+      <c r="N10" s="5"/>
+    </row>
+    <row r="11" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>95</v>
+      </c>
+      <c r="B11">
+        <v>32439</v>
+      </c>
+      <c r="C11">
+        <v>1046148</v>
+      </c>
+      <c r="D11">
+        <v>633932</v>
+      </c>
+      <c r="N11" s="5"/>
+    </row>
+    <row r="12" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>96</v>
+      </c>
+      <c r="B12">
+        <v>31357</v>
+      </c>
+      <c r="C12">
+        <v>1063662</v>
+      </c>
+      <c r="D12">
+        <v>624697</v>
+      </c>
+      <c r="N12" s="5"/>
+    </row>
+    <row r="13" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>97</v>
+      </c>
+      <c r="B13">
+        <v>30986</v>
+      </c>
+      <c r="C13">
+        <v>1080660</v>
+      </c>
+      <c r="D13">
+        <v>613881</v>
+      </c>
+      <c r="N13" s="5"/>
+    </row>
+    <row r="14" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>98</v>
+      </c>
+      <c r="B14">
+        <v>31100</v>
+      </c>
+      <c r="C14">
+        <v>1092788</v>
+      </c>
+      <c r="D14">
+        <v>610863</v>
+      </c>
+      <c r="N14" s="5"/>
+    </row>
+    <row r="15" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>99</v>
+      </c>
+      <c r="B15">
+        <v>30771</v>
+      </c>
+      <c r="C15">
+        <v>1094564</v>
+      </c>
+      <c r="D15">
+        <v>608302</v>
+      </c>
+      <c r="N15" s="5"/>
+    </row>
+    <row r="16" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>100</v>
+      </c>
+      <c r="B16">
+        <v>30745</v>
+      </c>
+      <c r="C16">
+        <v>1101578</v>
+      </c>
+      <c r="D16">
+        <v>616378</v>
+      </c>
+      <c r="N16" s="5"/>
+    </row>
+    <row r="17" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>101</v>
+      </c>
+      <c r="B17">
+        <v>30316</v>
+      </c>
+      <c r="C17">
+        <v>1099934</v>
+      </c>
+      <c r="D17">
+        <v>621484</v>
+      </c>
+      <c r="N17" s="5"/>
+    </row>
+    <row r="18" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>102</v>
+      </c>
+      <c r="B18">
+        <v>30130</v>
+      </c>
+      <c r="C18">
+        <v>1034810</v>
+      </c>
+      <c r="D18">
+        <v>628316</v>
+      </c>
+      <c r="N18" s="5"/>
+    </row>
+    <row r="19" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>103</v>
+      </c>
+      <c r="B19">
+        <v>29797</v>
+      </c>
+      <c r="C19">
+        <v>980563</v>
+      </c>
+      <c r="D19">
+        <v>639605</v>
+      </c>
+      <c r="N19" s="5"/>
+    </row>
+    <row r="20" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>104</v>
+      </c>
+      <c r="B20">
+        <v>28857</v>
+      </c>
+      <c r="C20">
+        <v>962797</v>
+      </c>
+      <c r="D20">
+        <v>646772</v>
+      </c>
+      <c r="N20" s="5"/>
+    </row>
+    <row r="21" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>105</v>
+      </c>
+      <c r="B21">
+        <v>28325</v>
+      </c>
+      <c r="C21">
+        <v>952180</v>
+      </c>
+      <c r="D21">
+        <v>648917</v>
+      </c>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>106</v>
+      </c>
+      <c r="B22">
+        <v>28450</v>
+      </c>
+      <c r="C22">
+        <v>953645</v>
+      </c>
+      <c r="D22">
+        <v>650735</v>
+      </c>
+      <c r="N22" s="5"/>
+    </row>
+    <row r="23" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>107</v>
+      </c>
+      <c r="B23">
+        <v>28675</v>
+      </c>
+      <c r="C23">
+        <v>944171</v>
+      </c>
+      <c r="D23">
+        <v>651627</v>
+      </c>
+      <c r="N23" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -626,7 +1037,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -634,7 +1045,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -644,7 +1055,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>86</v>
       </c>
@@ -652,7 +1063,7 @@
         <v>364972</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>87</v>
       </c>
@@ -660,7 +1071,7 @@
         <v>383537</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>88</v>
       </c>
@@ -668,7 +1079,7 @@
         <v>397319</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>89</v>
       </c>
@@ -676,7 +1087,7 @@
         <v>416031</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>90</v>
       </c>
@@ -684,7 +1095,7 @@
         <v>401946</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>91</v>
       </c>
@@ -692,7 +1103,7 @@
         <v>420616</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>92</v>
       </c>
@@ -700,7 +1111,7 @@
         <v>435810</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>93</v>
       </c>
@@ -708,7 +1119,7 @@
         <v>459084</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>94</v>
       </c>
@@ -716,7 +1127,7 @@
         <v>468828</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>95</v>
       </c>
@@ -724,7 +1135,7 @@
         <v>483897</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>96</v>
       </c>
@@ -732,7 +1143,7 @@
         <v>503548</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>97</v>
       </c>
@@ -740,7 +1151,7 @@
         <v>482543</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>98</v>
       </c>
@@ -748,7 +1159,7 @@
         <v>473259</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>99</v>
       </c>
@@ -756,7 +1167,7 @@
         <v>524234</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>100</v>
       </c>
@@ -764,7 +1175,7 @@
         <v>527186</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>101</v>
       </c>
@@ -772,7 +1183,7 @@
         <v>537021</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>102</v>
       </c>
@@ -780,7 +1191,7 @@
         <v>565198</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>103</v>
       </c>
@@ -788,7 +1199,7 @@
         <v>607264</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>104</v>
       </c>
@@ -796,7 +1207,7 @@
         <v>633367</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>105</v>
       </c>
@@ -804,7 +1215,7 @@
         <v>650854</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>106</v>
       </c>
@@ -812,7 +1223,7 @@
         <v>667945</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>107</v>
       </c>
@@ -827,7 +1238,413 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>86</v>
+      </c>
+      <c r="B2" s="2">
+        <v>5038306</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>87</v>
+      </c>
+      <c r="B3" s="2">
+        <v>5168828</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>88</v>
+      </c>
+      <c r="B4" s="2">
+        <v>5102985</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>89</v>
+      </c>
+      <c r="B5" s="2">
+        <v>5336507</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>90</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5470752</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>91</v>
+      </c>
+      <c r="B7" s="2">
+        <v>5663775</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>92</v>
+      </c>
+      <c r="B8" s="2">
+        <v>5876004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>93</v>
+      </c>
+      <c r="B9" s="2">
+        <v>6094336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>94</v>
+      </c>
+      <c r="B10" s="2">
+        <v>6356284</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>95</v>
+      </c>
+      <c r="B11" s="2">
+        <v>6431440</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>96</v>
+      </c>
+      <c r="B12" s="2">
+        <v>6447891</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>97</v>
+      </c>
+      <c r="B13" s="2">
+        <v>6410034</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>98</v>
+      </c>
+      <c r="B14" s="2">
+        <v>6444987</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>99</v>
+      </c>
+      <c r="B15" s="2">
+        <v>6541622</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>100</v>
+      </c>
+      <c r="B16" s="2">
+        <v>6701419</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>101</v>
+      </c>
+      <c r="B17" s="2">
+        <v>6831267</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>102</v>
+      </c>
+      <c r="B18" s="2">
+        <v>6982214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>103</v>
+      </c>
+      <c r="B19" s="2">
+        <v>7155661</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>104</v>
+      </c>
+      <c r="B20" s="2">
+        <v>7328319</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>105</v>
+      </c>
+      <c r="B21" s="2">
+        <v>7423215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>106</v>
+      </c>
+      <c r="B22" s="2">
+        <v>7520054</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>107</v>
+      </c>
+      <c r="B23" s="2">
+        <v>7599882</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>86</v>
+      </c>
+      <c r="B2" s="2">
+        <v>10051613</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>87</v>
+      </c>
+      <c r="B3" s="2">
+        <v>10529040</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>88</v>
+      </c>
+      <c r="B4" s="2">
+        <v>10958469</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>89</v>
+      </c>
+      <c r="B5" s="2">
+        <v>11423172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>90</v>
+      </c>
+      <c r="B6" s="2">
+        <v>11733202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>91</v>
+      </c>
+      <c r="B7" s="2">
+        <v>11983757</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>92</v>
+      </c>
+      <c r="B8" s="2">
+        <v>12366864</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>93</v>
+      </c>
+      <c r="B9" s="2">
+        <v>12793950</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>94</v>
+      </c>
+      <c r="B10" s="2">
+        <v>13195265</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>95</v>
+      </c>
+      <c r="B11" s="2">
+        <v>13557028</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>96</v>
+      </c>
+      <c r="B12" s="2">
+        <v>13943473</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>97</v>
+      </c>
+      <c r="B13" s="2">
+        <v>14365442</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>98</v>
+      </c>
+      <c r="B14" s="2">
+        <v>14604330</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>99</v>
+      </c>
+      <c r="B15" s="2">
+        <v>14844932</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>100</v>
+      </c>
+      <c r="B16" s="2">
+        <v>15173602</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>101</v>
+      </c>
+      <c r="B17" s="2">
+        <v>15139628</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>102</v>
+      </c>
+      <c r="B18" s="2">
+        <v>14195123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>103</v>
+      </c>
+      <c r="B19" s="2">
+        <v>13735960</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>104</v>
+      </c>
+      <c r="B20" s="2">
+        <v>13661719</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>105</v>
+      </c>
+      <c r="B21" s="2">
+        <v>13668227</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>106</v>
+      </c>
+      <c r="B22" s="2">
+        <v>13755582</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>107</v>
+      </c>
+      <c r="B23" s="2">
+        <v>13835520</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -835,587 +1652,185 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>86</v>
       </c>
       <c r="B2" s="2">
-        <v>5038306</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>109289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>87</v>
       </c>
       <c r="B3" s="2">
-        <v>5168828</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>112293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>88</v>
       </c>
       <c r="B4" s="2">
-        <v>5102985</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>107700</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>89</v>
       </c>
       <c r="B5" s="2">
-        <v>5336507</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>107257</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>90</v>
       </c>
       <c r="B6" s="2">
-        <v>5470752</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>104940</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>91</v>
       </c>
       <c r="B7" s="2">
-        <v>5663775</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>101286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>92</v>
       </c>
       <c r="B8" s="2">
-        <v>5876004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>97752</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>93</v>
       </c>
       <c r="B9" s="2">
-        <v>6094336</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>95665</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>94</v>
       </c>
       <c r="B10" s="2">
-        <v>6356284</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>94278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>95</v>
       </c>
       <c r="B11" s="2">
-        <v>6431440</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>92418</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>96</v>
       </c>
       <c r="B12" s="2">
-        <v>6447891</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>89738</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>97</v>
       </c>
       <c r="B13" s="2">
-        <v>6410034</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>88779</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>98</v>
       </c>
       <c r="B14" s="2">
-        <v>6444987</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>88589</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>99</v>
       </c>
       <c r="B15" s="2">
-        <v>6541622</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>87449</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>100</v>
       </c>
       <c r="B16" s="2">
-        <v>6701419</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>87012</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>101</v>
       </c>
       <c r="B17" s="2">
-        <v>6831267</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>86654</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>102</v>
       </c>
       <c r="B18" s="2">
-        <v>6982214</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>87256</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>103</v>
       </c>
       <c r="B19" s="2">
-        <v>7155661</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>87643</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>104</v>
       </c>
       <c r="B20" s="2">
-        <v>7328319</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>86979</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>105</v>
       </c>
       <c r="B21" s="2">
-        <v>7423215</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>86969</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>106</v>
       </c>
       <c r="B22" s="2">
-        <v>7520054</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="2">
-        <v>107</v>
-      </c>
-      <c r="B23" s="2">
-        <v>7599882</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:B23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2">
-        <v>86</v>
-      </c>
-      <c r="B2" s="2">
-        <v>10051613</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="2">
-        <v>87</v>
-      </c>
-      <c r="B3" s="2">
-        <v>10529040</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="2">
-        <v>88</v>
-      </c>
-      <c r="B4" s="2">
-        <v>10958469</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="2">
-        <v>89</v>
-      </c>
-      <c r="B5" s="2">
-        <v>11423172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="2">
-        <v>90</v>
-      </c>
-      <c r="B6" s="2">
-        <v>11733202</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="2">
-        <v>91</v>
-      </c>
-      <c r="B7" s="2">
-        <v>11983757</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="2">
-        <v>92</v>
-      </c>
-      <c r="B8" s="2">
-        <v>12366864</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="2">
-        <v>93</v>
-      </c>
-      <c r="B9" s="2">
-        <v>12793950</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="2">
-        <v>94</v>
-      </c>
-      <c r="B10" s="2">
-        <v>13195265</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="2">
-        <v>95</v>
-      </c>
-      <c r="B11" s="2">
-        <v>13557028</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="2">
-        <v>96</v>
-      </c>
-      <c r="B12" s="2">
-        <v>13943473</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="2">
-        <v>97</v>
-      </c>
-      <c r="B13" s="2">
-        <v>14365442</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="2">
-        <v>98</v>
-      </c>
-      <c r="B14" s="2">
-        <v>14604330</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="2">
-        <v>99</v>
-      </c>
-      <c r="B15" s="2">
-        <v>14844932</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="2">
-        <v>100</v>
-      </c>
-      <c r="B16" s="2">
-        <v>15173602</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="2">
-        <v>101</v>
-      </c>
-      <c r="B17" s="2">
-        <v>15139628</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="2">
-        <v>102</v>
-      </c>
-      <c r="B18" s="2">
-        <v>14195123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="2">
-        <v>103</v>
-      </c>
-      <c r="B19" s="2">
-        <v>13735960</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="2">
-        <v>104</v>
-      </c>
-      <c r="B20" s="2">
-        <v>13661719</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="2">
-        <v>105</v>
-      </c>
-      <c r="B21" s="2">
-        <v>13668227</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="2">
-        <v>106</v>
-      </c>
-      <c r="B22" s="2">
-        <v>13755582</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="2">
-        <v>107</v>
-      </c>
-      <c r="B23" s="2">
-        <v>13835520</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:B23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2">
-        <v>86</v>
-      </c>
-      <c r="B2" s="2">
-        <v>109289</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="2">
-        <v>87</v>
-      </c>
-      <c r="B3" s="2">
-        <v>112293</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="2">
-        <v>88</v>
-      </c>
-      <c r="B4" s="2">
-        <v>107700</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="2">
-        <v>89</v>
-      </c>
-      <c r="B5" s="2">
-        <v>107257</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="2">
-        <v>90</v>
-      </c>
-      <c r="B6" s="2">
-        <v>104940</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="2">
-        <v>91</v>
-      </c>
-      <c r="B7" s="2">
-        <v>101286</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="2">
-        <v>92</v>
-      </c>
-      <c r="B8" s="2">
-        <v>97752</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="2">
-        <v>93</v>
-      </c>
-      <c r="B9" s="2">
-        <v>95665</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="2">
-        <v>94</v>
-      </c>
-      <c r="B10" s="2">
-        <v>94278</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="2">
-        <v>95</v>
-      </c>
-      <c r="B11" s="2">
-        <v>92418</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="2">
-        <v>96</v>
-      </c>
-      <c r="B12" s="2">
-        <v>89738</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="2">
-        <v>97</v>
-      </c>
-      <c r="B13" s="2">
-        <v>88779</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="2">
-        <v>98</v>
-      </c>
-      <c r="B14" s="2">
-        <v>88589</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="2">
-        <v>99</v>
-      </c>
-      <c r="B15" s="2">
-        <v>87449</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="2">
-        <v>100</v>
-      </c>
-      <c r="B16" s="2">
-        <v>87012</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="2">
-        <v>101</v>
-      </c>
-      <c r="B17" s="2">
-        <v>86654</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="2">
-        <v>102</v>
-      </c>
-      <c r="B18" s="2">
-        <v>87256</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="2">
-        <v>103</v>
-      </c>
-      <c r="B19" s="2">
-        <v>87643</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="2">
-        <v>104</v>
-      </c>
-      <c r="B20" s="2">
-        <v>86979</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="2">
-        <v>105</v>
-      </c>
-      <c r="B21" s="2">
-        <v>86969</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="2">
-        <v>106</v>
-      </c>
-      <c r="B22" s="2">
         <v>87604</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>107</v>
       </c>
@@ -1430,15 +1845,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17" customWidth="1" collapsed="1"/>
   </cols>
@@ -1841,7 +2258,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1849,7 +2266,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1955,17 +2372,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="42.54296875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="42.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2014,7 +2433,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -2094,14 +2513,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
